--- a/graphmaking/overview graphs.xlsx
+++ b/graphmaking/overview graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arjan\Desktop\thesis\thesis-report\graphmaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F910CE-80FB-4E0E-BD66-0A57ECD8E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4AFCEC-1EB8-4DC3-BD44-A7566BD89DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46815" yWindow="3675" windowWidth="18435" windowHeight="9765" xr2:uid="{BA488DB3-6E91-463F-BA31-737BC2C97C80}"/>
+    <workbookView xWindow="38280" yWindow="2250" windowWidth="29040" windowHeight="15840" xr2:uid="{BA488DB3-6E91-463F-BA31-737BC2C97C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>Chapter</t>
   </si>
@@ -382,9 +382,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>M</t>
@@ -750,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8BAF34-F796-4D01-8430-0C6BED692AED}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -925,7 +922,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,10 +1000,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
         <v>118</v>
-      </c>
-      <c r="C18" t="s">
-        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -1023,7 +1020,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1037,7 +1034,7 @@
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,7 +1048,7 @@
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,7 +1062,7 @@
         <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,7 +1076,7 @@
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1093,7 +1090,7 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1107,7 +1104,7 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1121,7 +1118,7 @@
         <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,7 +1146,7 @@
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1177,7 +1174,7 @@
         <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">

--- a/graphmaking/overview graphs.xlsx
+++ b/graphmaking/overview graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arjan\Desktop\thesis\thesis-report\graphmaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4AFCEC-1EB8-4DC3-BD44-A7566BD89DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF059A63-CA88-4446-9C28-12CA1F8DCD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2250" windowWidth="29040" windowHeight="15840" xr2:uid="{BA488DB3-6E91-463F-BA31-737BC2C97C80}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
   <si>
     <t>Chapter</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>X (redo)</t>
+  </si>
+  <si>
+    <t>overfit_free</t>
+  </si>
+  <si>
+    <t>vergelijking van overfitting voor single orbit vs circular vs free</t>
   </si>
 </sst>
 </file>
@@ -745,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8BAF34-F796-4D01-8430-0C6BED692AED}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,6 +1235,9 @@
       <c r="C34" t="s">
         <v>77</v>
       </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -1240,16 +1249,22 @@
       <c r="C35" t="s">
         <v>78</v>
       </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5.4</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,10 +1272,13 @@
         <v>5.4</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1268,21 +1286,27 @@
         <v>5.4</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1290,10 +1314,10 @@
         <v>5.5</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1301,21 +1325,21 @@
         <v>5.5</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,10 +1347,10 @@
         <v>5.6</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,32 +1358,32 @@
         <v>5.6</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,21 +1391,21 @@
         <v>6.2</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,21 +1413,21 @@
         <v>6.3</v>
       </c>
       <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6.3</v>
+      </c>
+      <c r="B50" t="s">
         <v>92</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1411,21 +1435,21 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1433,10 +1457,10 @@
         <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1444,29 +1468,32 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1490,6 +1517,14 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
         <v>108</v>
       </c>
     </row>

--- a/graphmaking/overview graphs.xlsx
+++ b/graphmaking/overview graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arjan\Desktop\thesis\thesis-report\graphmaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF059A63-CA88-4446-9C28-12CA1F8DCD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E6A3F7-46C2-400A-9844-C90673A5B9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2250" windowWidth="29040" windowHeight="15840" xr2:uid="{BA488DB3-6E91-463F-BA31-737BC2C97C80}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
   <si>
     <t>Chapter</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>vergelijking van overfitting voor single orbit vs circular vs free</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,6 +1322,9 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -1329,6 +1335,9 @@
       </c>
       <c r="C41" t="s">
         <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
